--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0AA97A-8D3C-4E8C-800A-0C3069FD057E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B78536-64BF-40F7-945A-1B0D8DB4D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1980" windowWidth="21600" windowHeight="11505" xr2:uid="{8CEA3452-D32F-407A-95B9-A8CF6EA169A8}"/>
+    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{0FD5044C-DAB3-4A46-955C-F0C1D1680271}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,23 +31,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
   <si>
     <t>А10</t>
   </si>
   <si>
+    <t>Вступ до спеціальності</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
+  </si>
+  <si>
     <t>Основи правознавства</t>
   </si>
   <si>
     <t>Веселянский Я.А.</t>
   </si>
   <si>
-    <t>Вступ до спеціальності</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
-  </si>
-  <si>
     <t>Історія України</t>
   </si>
   <si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Журавська К.О.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зарубіжна література </t>
   </si>
   <si>
     <t>Лг12</t>
@@ -807,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9486C385-A9D3-4090-9646-567E15E4F435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD600F6F-A458-42C4-8074-CD6AEAC384A8}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -837,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -876,17 +873,17 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -942,7 +939,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
@@ -960,40 +957,40 @@
         <v>32</v>
       </c>
       <c r="G3" s="13">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="13">
+        <v>218</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="13">
+        <v>416</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="J3" s="13">
-        <v>209</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="13">
-        <v>306</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="P3" s="13">
         <v>321</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="S3" s="15">
         <v>305</v>
@@ -1058,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="16">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1134,37 +1131,37 @@
         <v>318</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>123</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="16">
-        <v>214</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>1</v>
-      </c>
       <c r="I5" s="16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J5" s="16">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="16">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="P5" s="16">
         <v>216</v>
@@ -1234,19 +1231,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="16">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G6" s="16">
-        <v>153</v>
+        <v>404</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>14</v>
@@ -1255,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="16">
-        <v>411</v>
+        <v>208</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>14</v>
@@ -1264,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="16">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>9</v>
@@ -1273,16 +1270,16 @@
         <v>8</v>
       </c>
       <c r="P6" s="16">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="S6" s="18">
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
@@ -1347,14 +1344,14 @@
         <v>38</v>
       </c>
       <c r="J7" s="16">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="16">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1418,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="16">
         <v>318</v>
@@ -1430,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="16">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>9</v>
@@ -1439,16 +1436,16 @@
         <v>8</v>
       </c>
       <c r="J8" s="16">
-        <v>413</v>
+        <v>211</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="M8" s="16">
+        <v>108</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>14</v>
@@ -1457,13 +1454,13 @@
         <v>32</v>
       </c>
       <c r="P8" s="16">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S8" s="18">
         <v>305</v>
@@ -1531,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="19">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>7</v>
@@ -1606,13 +1603,13 @@
         <v>318</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>206</v>
+        <v>413</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1621,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="13">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>15</v>
@@ -1630,16 +1627,16 @@
         <v>16</v>
       </c>
       <c r="M10" s="13">
-        <v>416</v>
+        <v>219</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="P10" s="13">
-        <v>112</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>14</v>
@@ -1710,7 +1707,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="16">
-        <v>203</v>
+        <v>410</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1726,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="18">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1793,43 +1790,43 @@
         <v>5</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" s="16">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="16">
-        <v>117</v>
+        <v>42</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="P12" s="16">
+        <v>214</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>6</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S12" s="18">
         <v>305</v>
@@ -1891,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1973,10 +1970,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="16">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>17</v>
@@ -1985,13 +1982,13 @@
         <v>38</v>
       </c>
       <c r="J14" s="16">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>21</v>
@@ -2003,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="16">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>22</v>
@@ -2071,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>314</v>
+        <v>410</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2216,7 +2213,7 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>11</v>
@@ -2240,19 +2237,19 @@
         <v>5</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>5</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17" s="13">
-        <v>302</v>
+        <v>112</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>9</v>
@@ -2261,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="13">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>17</v>
@@ -2270,7 +2267,7 @@
         <v>36</v>
       </c>
       <c r="S17" s="15">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -2329,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="16">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2420,19 +2417,19 @@
         <v>6</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" s="16">
-        <v>123</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>6</v>
+        <v>211</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M19" s="16">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>11</v>
@@ -2441,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="16">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>7</v>
@@ -2504,60 +2501,28 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="16">
-        <v>318</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="16">
-        <v>201</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="16">
-        <v>111</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M20" s="16">
-        <v>416</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="16">
-        <v>310</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="18">
         <v>405</v>
       </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="18"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
@@ -2610,28 +2575,60 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="16">
+        <v>318</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="16">
+        <v>123</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="I21" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J21" s="16">
-        <v>152</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="16">
+        <v>201</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="16">
+        <v>311</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="18">
+        <v>108</v>
+      </c>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
@@ -2684,60 +2681,28 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="16">
-        <v>318</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="16">
-        <v>416</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="16" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J22" s="16">
-        <v>122</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="16">
-        <v>105</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="18">
-        <v>305</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="18"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
@@ -2788,30 +2753,62 @@
       <c r="BO22" s="12"/>
       <c r="BP22" s="12"/>
     </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="19">
-        <v>202</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="21"/>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="16">
+        <v>318</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="16">
+        <v>416</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="16">
+        <v>200</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="16">
+        <v>409</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="18">
+        <v>305</v>
+      </c>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
@@ -2862,64 +2859,30 @@
       <c r="BO23" s="12"/>
       <c r="BP23" s="12"/>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="13">
-        <v>717</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="13">
-        <v>404</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="13">
-        <v>405</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="13">
-        <v>153</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="15">
-        <v>305</v>
-      </c>
+    <row r="24" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="19">
+        <v>213</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="21"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
@@ -2971,59 +2934,61 @@
       <c r="BP24" s="12"/>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="13">
+        <v>318</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="13">
+        <v>308</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="I25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="J25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="K25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="13">
+        <v>416</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="16">
-        <v>108</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="16">
-        <v>405</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="16">
-        <v>112</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="16">
-        <v>717</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="18">
+      <c r="R25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="15">
         <v>305</v>
       </c>
       <c r="T25" s="12"/>
@@ -3078,28 +3043,60 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
+      <c r="B26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="16">
+        <v>215</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="16">
+        <v>218</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="L26" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M26" s="16">
-        <v>304</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="18"/>
+        <v>319</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="16">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="18">
+        <v>219</v>
+      </c>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
@@ -3168,44 +3165,32 @@
         <v>36</v>
       </c>
       <c r="G27" s="16">
-        <v>203</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>24</v>
+        <v>208</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J27" s="16">
+        <v>108</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="16">
         <v>416</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="16">
-        <v>413</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="16">
-        <v>122</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="18">
-        <v>108</v>
-      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="18"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
@@ -3256,30 +3241,56 @@
       <c r="BO27" s="12"/>
       <c r="BP27" s="12"/>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="16">
-        <v>208</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="18"/>
+    <row r="28" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="19">
+        <v>318</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="19">
+        <v>211</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="19">
+        <v>405</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="21">
+        <v>305</v>
+      </c>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
@@ -3330,55 +3341,57 @@
       <c r="BO28" s="12"/>
       <c r="BP28" s="12"/>
     </row>
-    <row r="29" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13">
+        <v>416</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="13">
+        <v>405</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="13">
+        <v>200</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="O29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="19">
-        <v>318</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="19">
-        <v>206</v>
-      </c>
-      <c r="H29" s="19" t="s">
+      <c r="P29" s="13">
+        <v>219</v>
+      </c>
+      <c r="Q29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="R29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="S29" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P29" s="19">
-        <v>111</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="21">
-        <v>305</v>
       </c>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -3431,57 +3444,29 @@
       <c r="BP29" s="12"/>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="13">
-        <v>416</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="13">
-        <v>405</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="13">
-        <v>108</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" s="13">
-        <v>105</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="S30" s="15">
-        <v>305</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="16">
+        <v>318</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="18"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
@@ -3534,31 +3519,59 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="17"/>
+      <c r="B31" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31" s="16">
-        <v>301</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
+        <v>405</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="16">
+        <v>108</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="16">
+        <v>416</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="16">
+        <v>203</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="16">
+        <v>314</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="R31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="S31" s="18">
-        <v>208</v>
+        <v>20</v>
+      </c>
+      <c r="S31" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
@@ -3612,54 +3625,32 @@
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="16">
-        <v>405</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="16">
-        <v>108</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="16" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="16">
+        <v>213</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="16">
         <v>219</v>
       </c>
-      <c r="K32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="16">
-        <v>409</v>
-      </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S32" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="18"/>
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
@@ -3710,56 +3701,38 @@
       <c r="BO32" s="12"/>
       <c r="BP32" s="12"/>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="16" t="s">
+    <row r="33" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="19">
         <v>108</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="19">
         <v>405</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="16">
-        <v>416</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P33" s="16">
-        <v>308</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S33" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="21"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
@@ -3810,34 +3783,25 @@
       <c r="BO33" s="12"/>
       <c r="BP33" s="12"/>
     </row>
-    <row r="34" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="19">
-        <v>303</v>
-      </c>
-      <c r="N34" s="20"/>
-      <c r="O34" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" s="19">
-        <v>306</v>
-      </c>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="21"/>
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
@@ -4993,38 +4957,36 @@
       <c r="BP50" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="27">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B78536-64BF-40F7-945A-1B0D8DB4D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{505DC390-F8ED-4795-BD55-7573A3C089BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{0FD5044C-DAB3-4A46-955C-F0C1D1680271}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{8EDC5DA7-166D-4692-8009-8759E0E786ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD600F6F-A458-42C4-8074-CD6AEAC384A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858A20BF-B95D-4DFA-9210-EF6249E53CF2}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -957,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="13">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="13">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="13">
-        <v>416</v>
+        <v>108</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>7</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="13">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="16">
-        <v>411</v>
+        <v>218</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="16">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>7</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="16">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>3</v>
@@ -1155,7 +1155,7 @@
         <v>34</v>
       </c>
       <c r="M5" s="16">
-        <v>204</v>
+        <v>322</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>39</v>
       </c>
       <c r="P5" s="16">
-        <v>216</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>11</v>
@@ -1243,7 +1243,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="16">
-        <v>404</v>
+        <v>218</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>14</v>
@@ -1252,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="16">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>14</v>
@@ -1261,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="16">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="16">
-        <v>413</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="S6" s="18">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
@@ -1344,14 +1344,14 @@
         <v>38</v>
       </c>
       <c r="J7" s="16">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="16">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1427,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="16">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="16">
-        <v>211</v>
+        <v>404</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>7</v>
@@ -1445,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="16">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>14</v>
@@ -1454,7 +1454,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="16">
-        <v>411</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="19">
-        <v>218</v>
+        <v>411</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1618,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="13">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>15</v>
@@ -1627,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="13">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>17</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="P10" s="13">
-        <v>409</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>14</v>
@@ -1707,7 +1707,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="16">
-        <v>410</v>
+        <v>210</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="18">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="16">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>19</v>
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="16">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>6</v>
@@ -1829,7 +1829,7 @@
         <v>43</v>
       </c>
       <c r="S12" s="18">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
@@ -1888,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1982,7 +1982,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="16">
-        <v>201</v>
+        <v>409</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>19</v>
@@ -2000,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="16">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>22</v>
@@ -2068,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>410</v>
+        <v>219</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="19">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -2240,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>5</v>
@@ -2249,7 +2249,7 @@
         <v>43</v>
       </c>
       <c r="M17" s="13">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>9</v>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="13">
-        <v>416</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>17</v>
@@ -2267,7 +2267,7 @@
         <v>36</v>
       </c>
       <c r="S17" s="15">
-        <v>105</v>
+        <v>321</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -2326,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="16">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="16">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>17</v>
@@ -2429,7 +2429,7 @@
         <v>18</v>
       </c>
       <c r="M19" s="16">
-        <v>215</v>
+        <v>413</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>11</v>
@@ -2438,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="16">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>7</v>
@@ -2515,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="M20" s="16">
-        <v>405</v>
+        <v>322</v>
       </c>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="16">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>9</v>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="16">
-        <v>154</v>
+        <v>317</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="M21" s="16">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>5</v>
@@ -2618,7 +2618,7 @@
         <v>43</v>
       </c>
       <c r="P21" s="16">
-        <v>311</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>29</v>
@@ -2692,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="16">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2780,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="16">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>6</v>
@@ -2789,7 +2789,7 @@
         <v>43</v>
       </c>
       <c r="M23" s="16">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="19">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -2953,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="13">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>19</v>
@@ -2971,7 +2971,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="13">
-        <v>416</v>
+        <v>202</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>19</v>
@@ -3059,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16">
-        <v>215</v>
+        <v>416</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>22</v>
@@ -3068,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="16">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>29</v>
@@ -3077,7 +3077,7 @@
         <v>30</v>
       </c>
       <c r="M26" s="16">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="N26" s="16" t="s">
         <v>6</v>
@@ -3086,7 +3086,7 @@
         <v>43</v>
       </c>
       <c r="P26" s="16">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="16" t="s">
         <v>17</v>
@@ -3095,7 +3095,7 @@
         <v>36</v>
       </c>
       <c r="S26" s="18">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
@@ -3165,7 +3165,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="16">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>29</v>
@@ -3174,7 +3174,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="16">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -3186,7 +3186,7 @@
         <v>18</v>
       </c>
       <c r="P27" s="16">
-        <v>416</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -3259,7 +3259,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="19">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>19</v>
@@ -3373,7 +3373,7 @@
         <v>10</v>
       </c>
       <c r="M29" s="13">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>22</v>
@@ -3382,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="P29" s="13">
-        <v>219</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>19</v>
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="16">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>24</v>
@@ -3562,7 +3562,7 @@
         <v>45</v>
       </c>
       <c r="P31" s="16">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="16" t="s">
         <v>19</v>
@@ -3636,7 +3636,7 @@
         <v>26</v>
       </c>
       <c r="J32" s="16">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
@@ -3646,7 +3646,7 @@
         <v>26</v>
       </c>
       <c r="P32" s="16">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{505DC390-F8ED-4795-BD55-7573A3C089BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C845851-86AA-4248-9C6E-C89B17C06B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{8EDC5DA7-166D-4692-8009-8759E0E786ED}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{6F21864A-6984-422F-A6B9-E4E52A03FF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858A20BF-B95D-4DFA-9210-EF6249E53CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3C9B3-C3D2-44D3-9953-615D9146D872}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -957,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="13">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="13">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="13">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>7</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="13">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="16">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="16">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>7</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="16">
-        <v>218</v>
+        <v>405</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>3</v>
@@ -1155,7 +1155,7 @@
         <v>34</v>
       </c>
       <c r="M5" s="16">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>39</v>
       </c>
       <c r="P5" s="16">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>11</v>
@@ -1234,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="16">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>7</v>
@@ -1243,7 +1243,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="16">
-        <v>218</v>
+        <v>413</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>14</v>
@@ -1252,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="16">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>14</v>
@@ -1261,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="16">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="16">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>15</v>
@@ -1344,14 +1344,14 @@
         <v>38</v>
       </c>
       <c r="J7" s="16">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="16">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="16">
-        <v>318</v>
+        <v>200</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
@@ -1427,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="16">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="16">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>7</v>
@@ -1445,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="16">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>14</v>
@@ -1454,7 +1454,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="16">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="19">
-        <v>411</v>
+        <v>218</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1618,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="13">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>15</v>
@@ -1627,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="13">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>17</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="P10" s="13">
-        <v>123</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>14</v>
@@ -1707,7 +1707,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="16">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="18">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="16">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>6</v>
@@ -1829,7 +1829,7 @@
         <v>43</v>
       </c>
       <c r="S12" s="18">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
@@ -1888,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="16">
-        <v>216</v>
+        <v>322</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>17</v>
@@ -1982,7 +1982,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="16">
-        <v>409</v>
+        <v>211</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>19</v>
@@ -2000,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="16">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>22</v>
@@ -2068,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="19">
-        <v>405</v>
+        <v>717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -2240,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>5</v>
@@ -2249,7 +2249,7 @@
         <v>43</v>
       </c>
       <c r="M17" s="13">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>9</v>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="13">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>17</v>
@@ -2267,7 +2267,7 @@
         <v>36</v>
       </c>
       <c r="S17" s="15">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -2326,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="16">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="16">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>17</v>
@@ -2429,7 +2429,7 @@
         <v>18</v>
       </c>
       <c r="M19" s="16">
-        <v>413</v>
+        <v>123</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>11</v>
@@ -2438,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="16">
-        <v>403</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>7</v>
@@ -2515,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="M20" s="16">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="16">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>9</v>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="16">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="M21" s="16">
-        <v>412</v>
+        <v>106</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>5</v>
@@ -2618,7 +2618,7 @@
         <v>43</v>
       </c>
       <c r="P21" s="16">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>29</v>
@@ -2692,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="16">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2780,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="16">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>6</v>
@@ -2789,7 +2789,7 @@
         <v>43</v>
       </c>
       <c r="M23" s="16">
-        <v>404</v>
+        <v>717</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="19">
-        <v>112</v>
+        <v>404</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -2953,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="13">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>19</v>
@@ -2971,7 +2971,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="13">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>19</v>
@@ -3059,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>22</v>
@@ -3068,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="16">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>29</v>
@@ -3086,7 +3086,7 @@
         <v>43</v>
       </c>
       <c r="P26" s="16">
-        <v>311</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="16" t="s">
         <v>17</v>
@@ -3165,7 +3165,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="16">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>29</v>
@@ -3174,7 +3174,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="16">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -3186,7 +3186,7 @@
         <v>18</v>
       </c>
       <c r="P27" s="16">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -3259,7 +3259,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="19">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>19</v>
@@ -3373,7 +3373,7 @@
         <v>10</v>
       </c>
       <c r="M29" s="13">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>22</v>
@@ -3382,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="P29" s="13">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>19</v>
@@ -3535,7 +3535,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="16">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>24</v>
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="16">
-        <v>117</v>
+        <v>409</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>24</v>
@@ -3562,7 +3562,7 @@
         <v>45</v>
       </c>
       <c r="P31" s="16">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="16" t="s">
         <v>19</v>
@@ -3636,7 +3636,7 @@
         <v>26</v>
       </c>
       <c r="J32" s="16">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
@@ -3646,7 +3646,7 @@
         <v>26</v>
       </c>
       <c r="P32" s="16">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C845851-86AA-4248-9C6E-C89B17C06B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D13144B-532A-4DE4-8E03-CE735EE75030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{6F21864A-6984-422F-A6B9-E4E52A03FF5A}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{19E0AD69-73A1-4137-815F-00F5FEAF4D29}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3C9B3-C3D2-44D3-9953-615D9146D872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9B768-E594-49B5-8A8B-1EDCB2C874C4}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -957,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="13">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="13">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="13">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>7</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="13">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="16">
-        <v>321</v>
+        <v>200</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="16">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>7</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="16">
-        <v>405</v>
+        <v>303</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>3</v>
@@ -1155,7 +1155,7 @@
         <v>34</v>
       </c>
       <c r="M5" s="16">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>39</v>
       </c>
       <c r="P5" s="16">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>11</v>
@@ -1234,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="16">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>7</v>
@@ -1243,7 +1243,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="16">
-        <v>413</v>
+        <v>317</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>14</v>
@@ -1252,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="16">
-        <v>410</v>
+        <v>306</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>14</v>
@@ -1261,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="16">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="16">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>15</v>
@@ -1344,14 +1344,14 @@
         <v>38</v>
       </c>
       <c r="J7" s="16">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="16">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="16">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
@@ -1427,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="16">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="16">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>7</v>
@@ -1445,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="16">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>14</v>
@@ -1454,7 +1454,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="16">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="19">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1618,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="13">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>15</v>
@@ -1627,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="13">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>17</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="P10" s="13">
-        <v>409</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>14</v>
@@ -1707,7 +1707,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="16">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="18">
-        <v>108</v>
+        <v>717</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="16">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>19</v>
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="16">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>6</v>
@@ -1888,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="16">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>17</v>
@@ -1982,7 +1982,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="16">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>19</v>
@@ -2000,7 +2000,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="16">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>22</v>
@@ -2068,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>203</v>
+        <v>405</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="19">
-        <v>717</v>
+        <v>305</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -2222,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="13">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>19</v>
@@ -2240,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>416</v>
+        <v>105</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>5</v>
@@ -2249,7 +2249,7 @@
         <v>43</v>
       </c>
       <c r="M17" s="13">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>9</v>
@@ -2258,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="13">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>17</v>
@@ -2326,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="16">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="16">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>17</v>
@@ -2429,7 +2429,7 @@
         <v>18</v>
       </c>
       <c r="M19" s="16">
-        <v>123</v>
+        <v>409</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>11</v>
@@ -2438,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="16">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>7</v>
@@ -2515,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="M20" s="16">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="16">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>9</v>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="16">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="M21" s="16">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>5</v>
@@ -2618,7 +2618,7 @@
         <v>43</v>
       </c>
       <c r="P21" s="16">
-        <v>413</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>29</v>
@@ -2692,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="16">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -2780,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="16">
-        <v>304</v>
+        <v>409</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>6</v>
@@ -2789,7 +2789,7 @@
         <v>43</v>
       </c>
       <c r="M23" s="16">
-        <v>717</v>
+        <v>109</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="19">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -2953,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="13">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>19</v>
@@ -2971,7 +2971,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="13">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>19</v>
@@ -3059,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>22</v>
@@ -3068,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="16">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>29</v>
@@ -3086,7 +3086,7 @@
         <v>43</v>
       </c>
       <c r="P26" s="16">
-        <v>405</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="16" t="s">
         <v>17</v>
@@ -3165,7 +3165,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="16">
-        <v>321</v>
+        <v>218</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>29</v>
@@ -3186,7 +3186,7 @@
         <v>18</v>
       </c>
       <c r="P27" s="16">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -3259,7 +3259,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="19">
-        <v>208</v>
+        <v>411</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>19</v>
@@ -3373,7 +3373,7 @@
         <v>10</v>
       </c>
       <c r="M29" s="13">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>22</v>
@@ -3382,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="P29" s="13">
-        <v>413</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>19</v>
@@ -3535,7 +3535,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="16">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>24</v>
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="16">
-        <v>409</v>
+        <v>152</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>24</v>
@@ -3562,7 +3562,7 @@
         <v>45</v>
       </c>
       <c r="P31" s="16">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="16" t="s">
         <v>19</v>
@@ -3636,7 +3636,7 @@
         <v>26</v>
       </c>
       <c r="J32" s="16">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
@@ -3646,7 +3646,7 @@
         <v>26</v>
       </c>
       <c r="P32" s="16">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D13144B-532A-4DE4-8E03-CE735EE75030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C78AF67-D67F-484D-B3A0-943C78E32255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{19E0AD69-73A1-4137-815F-00F5FEAF4D29}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{7FECF58D-D3A6-4D1B-A3E4-121DDF471C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="53">
   <si>
     <t>А10</t>
   </si>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9B768-E594-49B5-8A8B-1EDCB2C874C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C91293D-D256-4149-89B3-600C5DAFEDFC}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -957,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="13">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="13">
-        <v>412</v>
+        <v>201</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="13">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="16">
-        <v>200</v>
+        <v>416</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="16">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>7</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="16">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>3</v>
@@ -1155,16 +1155,16 @@
         <v>34</v>
       </c>
       <c r="M5" s="16">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="P5" s="16">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>11</v>
@@ -1243,7 +1243,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="16">
-        <v>317</v>
+        <v>112</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>14</v>
@@ -1252,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="16">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>14</v>
@@ -1261,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="16">
-        <v>123</v>
+        <v>411</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="16">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>15</v>
@@ -1344,14 +1344,14 @@
         <v>38</v>
       </c>
       <c r="J7" s="16">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="16">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1427,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="16">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="16">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>7</v>
@@ -1445,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="16">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>14</v>
@@ -1454,7 +1454,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="16">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="19">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1618,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="13">
-        <v>416</v>
+        <v>202</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>15</v>
@@ -1627,16 +1627,16 @@
         <v>16</v>
       </c>
       <c r="M10" s="13">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="P10" s="13">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="14" t="s">
         <v>14</v>
@@ -1707,7 +1707,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="16">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="18">
-        <v>717</v>
+        <v>314</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="J12" s="16">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>19</v>
@@ -1820,13 +1820,13 @@
         <v>34</v>
       </c>
       <c r="P12" s="16">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="S12" s="18">
         <v>305</v>
@@ -1888,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>208</v>
+        <v>413</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="16">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>17</v>
@@ -1982,7 +1982,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="16">
-        <v>215</v>
+        <v>405</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>19</v>
@@ -1994,19 +1994,19 @@
         <v>21</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P14" s="16">
-        <v>106</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="S14" s="18">
         <v>305</v>
@@ -2068,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="19">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -2222,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="13">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>19</v>
@@ -2240,16 +2240,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M17" s="13">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>9</v>
@@ -2258,16 +2258,16 @@
         <v>8</v>
       </c>
       <c r="P17" s="13">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="15">
-        <v>305</v>
+        <v>20</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -2326,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="16">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2420,16 +2420,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="16">
-        <v>117</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>17</v>
+        <v>112</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M19" s="16">
-        <v>409</v>
+        <v>217</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>11</v>
@@ -2438,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="16">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>7</v>
@@ -2501,28 +2501,60 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
+      <c r="B20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="16">
+        <v>318</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="16">
+        <v>200</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="16">
+        <v>104</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="L20" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M20" s="16">
-        <v>106</v>
-      </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="18"/>
+        <v>304</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="18">
+        <v>305</v>
+      </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
@@ -2575,60 +2607,28 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="16">
-        <v>318</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="16">
-        <v>106</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" s="16">
-        <v>322</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="16">
-        <v>215</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="16">
-        <v>200</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" s="18">
-        <v>108</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="18"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
@@ -2681,28 +2681,60 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="B22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="16">
+        <v>318</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="16">
+        <v>416</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="I22" s="16" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J22" s="16">
-        <v>218</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="16">
+        <v>217</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="16">
+        <v>403</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="18">
+        <v>305</v>
+      </c>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
@@ -2753,62 +2785,30 @@
       <c r="BO22" s="12"/>
       <c r="BP22" s="12"/>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="16">
-        <v>318</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="16">
-        <v>416</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="16">
-        <v>409</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="16">
-        <v>109</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="18">
-        <v>305</v>
-      </c>
+    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="19">
+        <v>204</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="21"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
@@ -2859,30 +2859,64 @@
       <c r="BO23" s="12"/>
       <c r="BP23" s="12"/>
     </row>
-    <row r="24" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="19">
-        <v>104</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="21"/>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="13">
+        <v>318</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="13">
+        <v>154</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="13">
+        <v>405</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="15">
+        <v>305</v>
+      </c>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
@@ -2934,61 +2968,59 @@
       <c r="BP24" s="12"/>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="16">
+        <v>152</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="16">
+        <v>303</v>
+      </c>
+      <c r="K25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="L25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="13">
-        <v>318</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="13">
-        <v>154</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="13">
-        <v>319</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="15">
+      <c r="M25" s="16">
+        <v>200</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="16">
+        <v>213</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="18">
         <v>305</v>
       </c>
       <c r="T25" s="12"/>
@@ -3043,60 +3075,28 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="16">
-        <v>152</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="16">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="16">
         <v>319</v>
       </c>
-      <c r="K26" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="16">
-        <v>108</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="16">
-        <v>204</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="S26" s="18">
-        <v>305</v>
-      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="18"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
@@ -3165,20 +3165,26 @@
         <v>36</v>
       </c>
       <c r="G27" s="16">
-        <v>218</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>29</v>
+        <v>412</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J27" s="16">
-        <v>108</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+        <v>416</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="16">
+        <v>210</v>
+      </c>
       <c r="N27" s="16" t="s">
         <v>17</v>
       </c>
@@ -3186,11 +3192,17 @@
         <v>18</v>
       </c>
       <c r="P27" s="16">
-        <v>211</v>
-      </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="18">
+        <v>108</v>
+      </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
@@ -3241,56 +3253,30 @@
       <c r="BO27" s="12"/>
       <c r="BP27" s="12"/>
     </row>
-    <row r="28" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="19">
-        <v>318</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="19">
-        <v>411</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" s="19">
-        <v>405</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="21">
-        <v>305</v>
-      </c>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="16">
+        <v>106</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
@@ -3341,57 +3327,55 @@
       <c r="BO28" s="12"/>
       <c r="BP28" s="12"/>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="13">
-        <v>416</v>
-      </c>
-      <c r="E29" s="13" t="s">
+    <row r="29" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="19">
+        <v>318</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="19">
+        <v>321</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="O29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="13">
+      <c r="P29" s="19">
         <v>405</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="13">
+      <c r="Q29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="21">
         <v>305</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" s="13">
-        <v>111</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -3444,29 +3428,57 @@
       <c r="BP29" s="12"/>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="16">
-        <v>318</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="18"/>
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="13">
+        <v>416</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="13">
+        <v>405</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="13">
+        <v>108</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="13">
+        <v>409</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" s="15">
+        <v>305</v>
+      </c>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
@@ -3519,59 +3531,31 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="B31" s="17"/>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="16">
-        <v>405</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="16">
-        <v>108</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="16">
-        <v>416</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="16">
-        <v>152</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P31" s="16">
-        <v>202</v>
-      </c>
-      <c r="Q31" s="16" t="s">
-        <v>19</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="17"/>
       <c r="R31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S31" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="S31" s="18">
+        <v>217</v>
       </c>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
@@ -3625,28 +3609,44 @@
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="16">
-        <v>123</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
+      <c r="B32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="16">
+        <v>405</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="16">
+        <v>108</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="16">
+        <v>109</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="O32" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="P32" s="16">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
@@ -3701,38 +3701,30 @@
       <c r="BO32" s="12"/>
       <c r="BP32" s="12"/>
     </row>
-    <row r="33" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="19">
-        <v>108</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="19">
-        <v>405</v>
-      </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="21"/>
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="16">
+        <v>412</v>
+      </c>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="18"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
@@ -3783,25 +3775,44 @@
       <c r="BO33" s="12"/>
       <c r="BP33" s="12"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
+    <row r="34" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="19">
+        <v>108</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="19">
+        <v>405</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
@@ -4957,34 +4968,35 @@
       <c r="BP50" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N32:N33"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A29"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K25:K26"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C78AF67-D67F-484D-B3A0-943C78E32255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46AC7A26-7A67-4439-9B6C-C519FA860EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{7FECF58D-D3A6-4D1B-A3E4-121DDF471C4B}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{41D3728C-E745-43DC-9771-2CAB6AD09F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
   <si>
     <t>А10</t>
   </si>
@@ -75,6 +75,9 @@
     <t>Кочин І.В.</t>
   </si>
   <si>
+    <t>с.з.</t>
+  </si>
+  <si>
     <t>Інформатика</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>Пузіна О.С.</t>
-  </si>
-  <si>
-    <t>с.з.</t>
   </si>
   <si>
     <t>Безпека життєдіяльності</t>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C91293D-D256-4149-89B3-600C5DAFEDFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8128BC-9C14-4157-8C66-1AB89CCE670B}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -951,13 +951,13 @@
         <v>318</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="13">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="13">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="13">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>7</v>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="16">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="16">
-        <v>104</v>
+        <v>409</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>7</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="16">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>3</v>
@@ -1155,16 +1155,16 @@
         <v>34</v>
       </c>
       <c r="M5" s="16">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="16">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>11</v>
@@ -1243,25 +1243,25 @@
         <v>33</v>
       </c>
       <c r="G6" s="16">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="16">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="16">
-        <v>411</v>
+        <v>302</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>9</v>
@@ -1270,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="P6" s="16">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S6" s="18">
         <v>305</v>
@@ -1344,14 +1344,14 @@
         <v>38</v>
       </c>
       <c r="J7" s="16">
-        <v>412</v>
+        <v>154</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="16" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="16">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -1421,13 +1421,13 @@
         <v>318</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="16">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="16">
-        <v>218</v>
+        <v>409</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>7</v>
@@ -1445,16 +1445,16 @@
         <v>33</v>
       </c>
       <c r="M8" s="16">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="16">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="19">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>322</v>
+        <v>413</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1618,16 +1618,16 @@
         <v>12</v>
       </c>
       <c r="J10" s="13">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" s="13">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>5</v>
@@ -1636,10 +1636,10 @@
         <v>43</v>
       </c>
       <c r="P10" s="13">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R10" s="13" t="s">
         <v>32</v>
@@ -1707,7 +1707,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="16">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1723,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="18">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1793,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>1</v>
@@ -1802,16 +1802,16 @@
         <v>39</v>
       </c>
       <c r="J12" s="16">
-        <v>219</v>
+        <v>411</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N12" s="16" t="s">
         <v>3</v>
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="16">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>22</v>
@@ -1888,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1973,37 +1973,37 @@
         <v>4</v>
       </c>
       <c r="G14" s="16">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="16">
-        <v>405</v>
+        <v>151</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="16">
+        <v>217</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="P14" s="16">
-        <v>321</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>36</v>
@@ -2068,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>409</v>
+        <v>154</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2147,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="19">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -2222,16 +2222,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="13">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>5</v>
@@ -2240,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>22</v>
@@ -2249,7 +2249,7 @@
         <v>23</v>
       </c>
       <c r="M17" s="13">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>9</v>
@@ -2258,16 +2258,16 @@
         <v>8</v>
       </c>
       <c r="P17" s="13">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -2325,8 +2325,8 @@
       <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="16">
-        <v>214</v>
+      <c r="D18" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2396,7 +2396,7 @@
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>13</v>
@@ -2405,13 +2405,13 @@
         <v>318</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>6</v>
@@ -2419,8 +2419,8 @@
       <c r="I19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="16">
-        <v>112</v>
+      <c r="J19" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>5</v>
@@ -2429,7 +2429,7 @@
         <v>43</v>
       </c>
       <c r="M19" s="16">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>11</v>
@@ -2438,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="16">
-        <v>411</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>7</v>
@@ -2502,13 +2502,13 @@
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="16">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>22</v>
@@ -2517,7 +2517,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="16">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>9</v>
@@ -2526,7 +2526,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="16">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>11</v>
@@ -2535,16 +2535,16 @@
         <v>13</v>
       </c>
       <c r="M20" s="16">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>42</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="16" t="s">
         <v>6</v>
@@ -2618,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="16">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -2682,10 +2682,10 @@
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="16">
         <v>318</v>
@@ -2700,13 +2700,13 @@
         <v>416</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="16">
-        <v>104</v>
+        <v>717</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>6</v>
@@ -2715,7 +2715,7 @@
         <v>43</v>
       </c>
       <c r="M22" s="16">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N22" s="16" t="s">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>39</v>
       </c>
       <c r="P22" s="16">
-        <v>403</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>7</v>
@@ -2795,7 +2795,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="19">
-        <v>204</v>
+        <v>403</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -2864,10 +2864,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="13">
         <v>318</v>
@@ -2879,16 +2879,16 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>27</v>
@@ -2900,13 +2900,13 @@
         <v>405</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="13" t="s">
         <v>9</v>
@@ -2970,13 +2970,13 @@
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>9</v>
@@ -2994,16 +2994,16 @@
         <v>23</v>
       </c>
       <c r="J25" s="16">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25" s="16">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="N25" s="16" t="s">
         <v>6</v>
@@ -3012,10 +3012,10 @@
         <v>43</v>
       </c>
       <c r="P25" s="16">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R25" s="16" t="s">
         <v>36</v>
@@ -3089,7 +3089,7 @@
         <v>38</v>
       </c>
       <c r="M26" s="16">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -3150,22 +3150,22 @@
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="16">
-        <v>412</v>
+        <v>213</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>24</v>
@@ -3183,16 +3183,16 @@
         <v>10</v>
       </c>
       <c r="M27" s="16">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P27" s="16">
-        <v>153</v>
+        <v>310</v>
       </c>
       <c r="Q27" s="16" t="s">
         <v>29</v>
@@ -3266,7 +3266,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="16">
-        <v>106</v>
+        <v>403</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -3339,22 +3339,22 @@
         <v>318</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="19">
-        <v>321</v>
+        <v>200</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -3468,7 +3468,7 @@
         <v>23</v>
       </c>
       <c r="P30" s="13">
-        <v>409</v>
+        <v>153</v>
       </c>
       <c r="Q30" s="14" t="s">
         <v>24</v>
@@ -3555,7 +3555,7 @@
         <v>26</v>
       </c>
       <c r="S31" s="18">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
@@ -3637,7 +3637,7 @@
         <v>10</v>
       </c>
       <c r="M32" s="16">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N32" s="17" t="s">
         <v>24</v>
@@ -3720,7 +3720,7 @@
         <v>26</v>
       </c>
       <c r="P33" s="16">
-        <v>412</v>
+        <v>109</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
@@ -3805,13 +3805,13 @@
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R34" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46AC7A26-7A67-4439-9B6C-C519FA860EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A29266-8CB7-4C61-909D-5A0366107084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{41D3728C-E745-43DC-9771-2CAB6AD09F2C}"/>
+    <workbookView xWindow="3900" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{81AD62EC-AD4A-4213-9D11-14AF3B43F485}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="53">
   <si>
     <t>А10</t>
   </si>
@@ -75,28 +75,28 @@
     <t>Кочин І.В.</t>
   </si>
   <si>
+    <t>Інформатика</t>
+  </si>
+  <si>
+    <t>Зарубіжна література</t>
+  </si>
+  <si>
+    <t>Міщанчук Н.О.</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Петрова А.А.</t>
+  </si>
+  <si>
+    <t>Фізична культура</t>
+  </si>
+  <si>
+    <t>Пузіна О.С.</t>
+  </si>
+  <si>
     <t>с.з.</t>
-  </si>
-  <si>
-    <t>Інформатика</t>
-  </si>
-  <si>
-    <t>Зарубіжна література</t>
-  </si>
-  <si>
-    <t>Міщанчук Н.О.</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Петрова А.А.</t>
-  </si>
-  <si>
-    <t>Фізична культура</t>
-  </si>
-  <si>
-    <t>Пузіна О.С.</t>
   </si>
   <si>
     <t>Безпека життєдіяльності</t>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8128BC-9C14-4157-8C66-1AB89CCE670B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7643A542-B238-413B-9918-83F75B2D6AEE}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -951,13 +951,13 @@
         <v>318</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="13">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="13">
-        <v>412</v>
+        <v>152</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="13">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>7</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="P3" s="13">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="16">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="16">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>7</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="16">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>3</v>
@@ -1155,16 +1155,16 @@
         <v>34</v>
       </c>
       <c r="M5" s="16">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="N5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" s="16">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>11</v>
@@ -1243,25 +1243,25 @@
         <v>33</v>
       </c>
       <c r="G6" s="16">
-        <v>153</v>
+        <v>717</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="16">
-        <v>203</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>15</v>
+        <v>202</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="16">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>9</v>
@@ -1270,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="P6" s="16">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="S6" s="18">
         <v>305</v>
@@ -1344,15 +1344,11 @@
         <v>38</v>
       </c>
       <c r="J7" s="16">
-        <v>154</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="16">
-        <v>303</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
@@ -1421,13 +1417,13 @@
         <v>318</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="16">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>9</v>
@@ -1436,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="16">
-        <v>409</v>
+        <v>106</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>7</v>
@@ -1445,16 +1441,16 @@
         <v>33</v>
       </c>
       <c r="M8" s="16">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="16">
-        <v>314</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
@@ -1528,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="19">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -1609,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="13">
-        <v>413</v>
+        <v>108</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1618,16 +1614,16 @@
         <v>12</v>
       </c>
       <c r="J10" s="13">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="K10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="M10" s="13">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>5</v>
@@ -1636,10 +1632,10 @@
         <v>43</v>
       </c>
       <c r="P10" s="13">
-        <v>416</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R10" s="13" t="s">
         <v>32</v>
@@ -1707,7 +1703,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="16">
-        <v>404</v>
+        <v>219</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1723,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="18">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -1793,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="16">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>1</v>
@@ -1802,16 +1798,16 @@
         <v>39</v>
       </c>
       <c r="J12" s="16">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N12" s="16" t="s">
         <v>3</v>
@@ -1820,7 +1816,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="16">
-        <v>154</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>22</v>
@@ -1888,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="16">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1973,37 +1969,37 @@
         <v>4</v>
       </c>
       <c r="G14" s="16">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="16">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" s="16" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="P14" s="16">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>36</v>
@@ -2068,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="16">
-        <v>154</v>
+        <v>416</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2147,7 +2143,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="19">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -2225,13 +2221,13 @@
         <v>318</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>5</v>
@@ -2240,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="13">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>22</v>
@@ -2249,7 +2245,7 @@
         <v>23</v>
       </c>
       <c r="M17" s="13">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>9</v>
@@ -2258,16 +2254,16 @@
         <v>8</v>
       </c>
       <c r="P17" s="13">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="S17" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -2325,8 +2321,8 @@
       <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>14</v>
+      <c r="D18" s="16">
+        <v>405</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2396,7 +2392,7 @@
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>13</v>
@@ -2405,13 +2401,13 @@
         <v>318</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>6</v>
@@ -2419,8 +2415,8 @@
       <c r="I19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>14</v>
+      <c r="J19" s="16">
+        <v>203</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>5</v>
@@ -2429,7 +2425,7 @@
         <v>43</v>
       </c>
       <c r="M19" s="16">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>11</v>
@@ -2438,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="16">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>7</v>
@@ -2502,13 +2498,13 @@
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="D20" s="16">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>22</v>
@@ -2517,7 +2513,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="16">
-        <v>201</v>
+        <v>416</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>9</v>
@@ -2526,25 +2522,25 @@
         <v>8</v>
       </c>
       <c r="J20" s="16">
-        <v>151</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>11</v>
+        <v>214</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="16">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>42</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="16" t="s">
         <v>6</v>
@@ -2553,7 +2549,7 @@
         <v>43</v>
       </c>
       <c r="S20" s="18">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
@@ -2617,12 +2613,16 @@
       <c r="I21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="16">
-        <v>117</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="16">
+        <v>306</v>
+      </c>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -2682,10 +2682,10 @@
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="D22" s="16">
         <v>318</v>
@@ -2700,13 +2700,13 @@
         <v>416</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="16">
-        <v>717</v>
+        <v>123</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>6</v>
@@ -2715,7 +2715,7 @@
         <v>43</v>
       </c>
       <c r="M22" s="16">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="N22" s="16" t="s">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>39</v>
       </c>
       <c r="P22" s="16">
-        <v>151</v>
+        <v>410</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>7</v>
@@ -2795,7 +2795,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="19">
-        <v>403</v>
+        <v>122</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -2864,10 +2864,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="D24" s="13">
         <v>318</v>
@@ -2879,16 +2879,16 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="H24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="J24" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>27</v>
@@ -2900,13 +2900,13 @@
         <v>405</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="13" t="s">
         <v>9</v>
@@ -2970,13 +2970,13 @@
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>9</v>
@@ -2985,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="16">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>22</v>
@@ -2994,16 +2994,16 @@
         <v>23</v>
       </c>
       <c r="J25" s="16">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="K25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="M25" s="16">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="N25" s="16" t="s">
         <v>6</v>
@@ -3012,10 +3012,10 @@
         <v>43</v>
       </c>
       <c r="P25" s="16">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R25" s="16" t="s">
         <v>36</v>
@@ -3089,7 +3089,7 @@
         <v>38</v>
       </c>
       <c r="M26" s="16">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -3150,22 +3150,22 @@
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="16">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>24</v>
@@ -3183,25 +3183,25 @@
         <v>10</v>
       </c>
       <c r="M27" s="16">
+        <v>211</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="16">
         <v>322</v>
       </c>
-      <c r="N27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="16">
-        <v>310</v>
-      </c>
       <c r="Q27" s="16" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="S27" s="18">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
@@ -3266,7 +3266,7 @@
         <v>26</v>
       </c>
       <c r="J28" s="16">
-        <v>403</v>
+        <v>151</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
@@ -3339,22 +3339,22 @@
         <v>318</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="19">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="H29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="J29" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>14</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -3369,13 +3369,13 @@
         <v>405</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="R29" s="19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="S29" s="21">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -3468,17 +3468,11 @@
         <v>23</v>
       </c>
       <c r="P30" s="13">
-        <v>153</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S30" s="15">
-        <v>305</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
@@ -3550,13 +3544,9 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="S31" s="18">
-        <v>304</v>
-      </c>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="18"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
@@ -3720,7 +3710,7 @@
         <v>26</v>
       </c>
       <c r="P33" s="16">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
@@ -3775,43 +3765,49 @@
       <c r="BO33" s="12"/>
       <c r="BP33" s="12"/>
     </row>
-    <row r="34" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="19">
-        <v>108</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19" t="s">
+      <c r="D34" s="16">
+        <v>318</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="16">
         <v>405</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19" t="s">
+      <c r="K34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="16">
+        <v>416</v>
+      </c>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="19" t="s">
+      <c r="S34" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="S34" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
@@ -3863,25 +3859,30 @@
       <c r="BO34" s="12"/>
       <c r="BP34" s="12"/>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+    <row r="35" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="19">
+        <v>108</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="21"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
@@ -4969,12 +4970,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="K34:K35"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N32:N33"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A16"/>
@@ -4986,7 +4987,7 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K20:K21"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:B13"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A29266-8CB7-4C61-909D-5A0366107084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E81F25F-B798-4E50-9419-5F839BEB2687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{81AD62EC-AD4A-4213-9D11-14AF3B43F485}"/>
+    <workbookView xWindow="7650" yWindow="1455" windowWidth="13995" windowHeight="11505" xr2:uid="{57208DA4-0E0F-47CA-BC2C-C5D35B83743B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,41 +31,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="55">
   <si>
     <t>А10</t>
   </si>
   <si>
+    <t>Українська література</t>
+  </si>
+  <si>
+    <t>Вольська Ю.В.</t>
+  </si>
+  <si>
+    <t>Римар Т.В.</t>
+  </si>
+  <si>
+    <t>Основи правознавства</t>
+  </si>
+  <si>
+    <t>Веселянский Я.А.</t>
+  </si>
+  <si>
+    <t>Історія України</t>
+  </si>
+  <si>
+    <t>Всесвітня історія</t>
+  </si>
+  <si>
     <t>Вступ до спеціальності</t>
   </si>
   <si>
     <t>Білоконь С.Ф.</t>
   </si>
   <si>
-    <t>Основи правознавства</t>
-  </si>
-  <si>
-    <t>Веселянский Я.А.</t>
-  </si>
-  <si>
-    <t>Історія України</t>
-  </si>
-  <si>
-    <t>Всесвітня історія</t>
-  </si>
-  <si>
     <t>Українська мова</t>
   </si>
   <si>
-    <t>Вольська Ю.В.</t>
-  </si>
-  <si>
-    <t>Українська література</t>
-  </si>
-  <si>
-    <t>Римар Т.В.</t>
-  </si>
-  <si>
     <t>Фізика і астрономія</t>
   </si>
   <si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Сорочиньска О.В.</t>
+  </si>
+  <si>
+    <t>Технологічні процеси, обл. та обє. вироб.</t>
+  </si>
+  <si>
+    <t>Шурпан М.М.</t>
   </si>
   <si>
     <t>К17</t>
@@ -462,19 +468,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -482,11 +488,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7643A542-B238-413B-9918-83F75B2D6AEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BA62F7-3122-48A2-9D91-367CF8EAC516}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -815,7 +821,7 @@
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
@@ -834,7 +840,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -868,22 +874,22 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -939,57 +945,57 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>318</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="13">
-        <v>302</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13">
+      <c r="I3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="14">
+        <v>104</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="14">
         <v>152</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="13">
-        <v>413</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="13">
-        <v>211</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="13" t="s">
+      <c r="N3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="14">
+        <v>208</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="S3" s="15">
@@ -1048,26 +1054,30 @@
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>104</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16">
-        <v>314</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="G4" s="17">
+        <v>306</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="18"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -1121,55 +1131,55 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16">
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17">
         <v>318</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="17">
+        <v>219</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="16">
-        <v>413</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="16">
-        <v>317</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="16" t="s">
+      <c r="J5" s="17">
+        <v>123</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="16">
-        <v>112</v>
-      </c>
-      <c r="N5" s="16" t="s">
+      <c r="M5" s="17">
+        <v>211</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="16">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="16" t="s">
+      <c r="P5" s="17">
+        <v>321</v>
+      </c>
+      <c r="Q5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="S5" s="18">
@@ -1227,55 +1237,55 @@
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>318</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="16">
-        <v>717</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="17">
+        <v>109</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="16">
-        <v>202</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="J6" s="17">
+        <v>308</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="16">
-        <v>304</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="16">
+      <c r="M6" s="17">
+        <v>411</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="17">
         <v>200</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="S6" s="18">
@@ -1333,27 +1343,27 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="16">
-        <v>219</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="17">
+        <v>216</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="18"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
@@ -1407,56 +1417,56 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <v>318</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="17">
+        <v>317</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17">
+        <v>310</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="17">
+        <v>111</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="17">
+        <v>413</v>
+      </c>
+      <c r="Q8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="16">
-        <v>318</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="16">
-        <v>151</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="16">
-        <v>106</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="16">
-        <v>214</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="16">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>43</v>
+      <c r="R8" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="S8" s="18">
         <v>305</v>
@@ -1511,30 +1521,30 @@
       <c r="BO8" s="12"/>
       <c r="BP8" s="12"/>
     </row>
-    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="19">
-        <v>403</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="21"/>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="17">
+        <v>106</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
@@ -1586,63 +1596,31 @@
       <c r="BP9" s="12"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13">
+      <c r="C10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="17">
         <v>318</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="13">
-        <v>108</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="13">
-        <v>310</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="13">
-        <v>215</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="13">
-        <v>317</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="15">
-        <v>305</v>
-      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
@@ -1693,34 +1671,32 @@
       <c r="BO10" s="12"/>
       <c r="BP10" s="12"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="16">
-        <v>219</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" s="18">
-        <v>117</v>
-      </c>
+    <row r="11" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>318</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -1772,59 +1748,55 @@
       <c r="BP11" s="12"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="16">
-        <v>318</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="16">
-        <v>206</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="16">
-        <v>403</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="16">
+      <c r="G12" s="14">
+        <v>219</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="14">
         <v>405</v>
       </c>
-      <c r="Q12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="18">
+      <c r="K12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="14">
+        <v>210</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="14">
+        <v>306</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="15">
         <v>305</v>
       </c>
       <c r="T12" s="12"/>
@@ -1880,27 +1852,31 @@
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16">
-        <v>411</v>
-      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="F13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="17">
+        <v>208</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="18"/>
+      <c r="R13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="18">
+        <v>218</v>
+      </c>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
@@ -1953,56 +1929,50 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="17">
+        <v>111</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="16">
-        <v>318</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="I14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="17">
+        <v>216</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="16">
-        <v>105</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="16">
-        <v>219</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="16">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>36</v>
+      <c r="O14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="17">
+        <v>317</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="S14" s="18">
         <v>305</v>
@@ -2060,27 +2030,53 @@
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="16">
-        <v>416</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="17">
+        <v>202</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="17">
+        <v>310</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="17">
+        <v>304</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="18">
+        <v>201</v>
+      </c>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
@@ -2131,32 +2127,32 @@
       <c r="BO15" s="12"/>
       <c r="BP15" s="12"/>
     </row>
-    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="19">
-        <v>322</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="21"/>
+      <c r="G16" s="17">
+        <v>404</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
@@ -2208,63 +2204,25 @@
       <c r="BP16" s="12"/>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13">
-        <v>318</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="13">
-        <v>203</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="13">
-        <v>403</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="13">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
@@ -2317,27 +2275,29 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="16">
-        <v>405</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="17">
+        <v>318</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="18"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -2389,62 +2349,30 @@
       <c r="BO18" s="12"/>
       <c r="BP18" s="12"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="16">
-        <v>318</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="16">
-        <v>203</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="16">
-        <v>153</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="16">
-        <v>308</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S19" s="18">
-        <v>305</v>
-      </c>
+    <row r="19" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="19">
+        <v>122</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="20"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
@@ -2496,60 +2424,62 @@
       <c r="BP19" s="12"/>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14">
         <v>318</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="14">
+        <v>117</v>
+      </c>
+      <c r="K20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="L20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="16">
-        <v>416</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="16">
-        <v>214</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="16">
-        <v>305</v>
-      </c>
-      <c r="N20" s="16" t="s">
+      <c r="M20" s="14">
+        <v>405</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="14">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="16" t="s">
+      <c r="R20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" s="18">
-        <v>123</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
@@ -2604,30 +2534,26 @@
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="C21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="17">
+        <v>106</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="16">
-        <v>306</v>
-      </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
       <c r="S21" s="18"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
@@ -2681,56 +2607,56 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="B22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="17">
         <v>318</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="16">
-        <v>416</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="16">
-        <v>123</v>
-      </c>
-      <c r="K22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="17">
+        <v>210</v>
+      </c>
+      <c r="K22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="16">
-        <v>317</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="16">
-        <v>410</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>8</v>
+      <c r="L22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="17">
+        <v>322</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="17">
+        <v>202</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="S22" s="18">
         <v>305</v>
@@ -2785,30 +2711,62 @@
       <c r="BO22" s="12"/>
       <c r="BP22" s="12"/>
     </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="19">
-        <v>122</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="21"/>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17">
+        <v>318</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="17">
+        <v>314</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="17">
+        <v>308</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="17">
+        <v>104</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="18">
+        <v>305</v>
+      </c>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
@@ -2860,63 +2818,33 @@
       <c r="BP23" s="12"/>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="13">
-        <v>318</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="13">
-        <v>319</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="13">
-        <v>405</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="15">
-        <v>305</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="17">
+        <v>410</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="17">
+        <v>322</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
@@ -2969,56 +2897,56 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>21</v>
+      <c r="B25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="17">
+        <v>318</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="17">
+        <v>416</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="17">
+        <v>203</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="17">
+        <v>403</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="17">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="16">
-        <v>310</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="16">
-        <v>106</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="16">
-        <v>123</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P25" s="16">
-        <v>108</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>36</v>
+      <c r="R25" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="S25" s="18">
         <v>305</v>
@@ -3075,27 +3003,27 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="F26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="17">
+        <v>152</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="16">
-        <v>405</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
       <c r="S26" s="18"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
@@ -3149,60 +3077,24 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="16">
-        <v>202</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="16">
-        <v>416</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="16">
-        <v>211</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" s="16">
-        <v>322</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="18">
-        <v>305</v>
-      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="18"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
@@ -3253,30 +3145,26 @@
       <c r="BO27" s="12"/>
       <c r="BP27" s="12"/>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="16">
-        <v>151</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="18"/>
+    <row r="28" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
@@ -3327,55 +3215,63 @@
       <c r="BO28" s="12"/>
       <c r="BP28" s="12"/>
     </row>
-    <row r="29" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="19">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="14">
         <v>318</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="19">
-        <v>303</v>
-      </c>
-      <c r="H29" s="19" t="s">
+      <c r="E29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="14">
+        <v>210</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" s="19">
-        <v>405</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" s="21">
-        <v>108</v>
+      <c r="K29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="14">
+        <v>206</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="15">
+        <v>305</v>
       </c>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -3428,51 +3324,29 @@
       <c r="BP29" s="12"/>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="13">
-        <v>416</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="13">
-        <v>405</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="13">
-        <v>108</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" s="13">
-        <v>152</v>
-      </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="15"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="17">
+        <v>308</v>
+      </c>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="18"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
@@ -3525,28 +3399,60 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="16">
-        <v>318</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="18"/>
+      <c r="B31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="17">
+        <v>213</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="17">
+        <v>717</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="17">
+        <v>106</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="17">
+        <v>405</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" s="18">
+        <v>112</v>
+      </c>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
@@ -3599,47 +3505,27 @@
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="16">
-        <v>405</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="16">
-        <v>108</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="16">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="17">
         <v>104</v>
       </c>
-      <c r="N32" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P32" s="16">
-        <v>416</v>
-      </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
       <c r="S32" s="18"/>
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
@@ -3693,28 +3579,60 @@
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" s="16">
-        <v>201</v>
-      </c>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="18"/>
+      <c r="B33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="17">
+        <v>151</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="17">
+        <v>405</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="17">
+        <v>319</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="17">
+        <v>204</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="18">
+        <v>108</v>
+      </c>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
@@ -3767,47 +3685,53 @@
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="B34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="17">
         <v>318</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="16">
-        <v>405</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="16">
-        <v>416</v>
-      </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16" t="s">
+      <c r="E34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="17">
+        <v>154</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R34" s="16" t="s">
+      <c r="I34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="18" t="s">
+      <c r="J34" s="17" t="s">
         <v>21</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="17">
+        <v>219</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S34" s="18">
+        <v>305</v>
       </c>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
@@ -3859,30 +3783,26 @@
       <c r="BO34" s="12"/>
       <c r="BP34" s="12"/>
     </row>
-    <row r="35" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35" s="19">
-        <v>108</v>
-      </c>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="21"/>
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
@@ -3933,25 +3853,26 @@
       <c r="BO35" s="12"/>
       <c r="BP35" s="12"/>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
+    <row r="36" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="20"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
@@ -4003,24 +3924,51 @@
       <c r="BP36" s="12"/>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="14">
+        <v>416</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="14">
+        <v>405</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="14">
+        <v>108</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="14">
+        <v>208</v>
+      </c>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
@@ -4072,24 +4020,29 @@
       <c r="BP37" s="12"/>
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="17">
+        <v>318</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
@@ -4141,24 +4094,49 @@
       <c r="BP38" s="12"/>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="17">
+        <v>405</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="17">
+        <v>108</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="17">
+        <v>152</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="17">
+        <v>416</v>
+      </c>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
@@ -4210,24 +4188,29 @@
       <c r="BP39" s="12"/>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="17">
+        <v>213</v>
+      </c>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="18"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
@@ -4279,24 +4262,49 @@
       <c r="BP40" s="12"/>
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="17">
+        <v>108</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="17">
+        <v>106</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="17">
+        <v>416</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
@@ -4348,24 +4356,29 @@
       <c r="BP41" s="12"/>
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="17">
+        <v>310</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
@@ -4417,24 +4430,25 @@
       <c r="BP42" s="12"/>
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
@@ -4486,24 +4500,25 @@
       <c r="BP43" s="12"/>
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
@@ -4554,25 +4569,26 @@
       <c r="BO44" s="12"/>
       <c r="BP44" s="12"/>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
+    <row r="45" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="20"/>
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
@@ -4970,34 +4986,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="K34:K35"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N39:N40"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A45"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H41:H42"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E81F25F-B798-4E50-9419-5F839BEB2687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BDF9DC0-A6B7-4AC3-90EE-C9AF6817706B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="1455" windowWidth="13995" windowHeight="11505" xr2:uid="{57208DA4-0E0F-47CA-BC2C-C5D35B83743B}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{4B198480-8F7D-4057-87CC-2EA589893725}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,39 +31,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="58">
   <si>
     <t>А10</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Основи правознавства</t>
+  </si>
+  <si>
+    <t>Веселянский Я.А.</t>
+  </si>
+  <si>
+    <t>Історія України</t>
+  </si>
+  <si>
+    <t>Всесвітня історія</t>
+  </si>
+  <si>
+    <t>Вступ до спеціальності</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
+  </si>
+  <si>
+    <t>Українська мова</t>
+  </si>
+  <si>
+    <t>Вольська Ю.В.</t>
+  </si>
+  <si>
     <t>Українська література</t>
   </si>
   <si>
-    <t>Вольська Ю.В.</t>
-  </si>
-  <si>
     <t>Римар Т.В.</t>
-  </si>
-  <si>
-    <t>Основи правознавства</t>
-  </si>
-  <si>
-    <t>Веселянский Я.А.</t>
-  </si>
-  <si>
-    <t>Історія України</t>
-  </si>
-  <si>
-    <t>Всесвітня історія</t>
-  </si>
-  <si>
-    <t>Вступ до спеціальності</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
-  </si>
-  <si>
-    <t>Українська мова</t>
   </si>
   <si>
     <t>Фізика і астрономія</t>
@@ -468,19 +477,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -810,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BA62F7-3122-48A2-9D91-367CF8EAC516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A6E2D0-AFF8-4899-96A0-4FE08A1E84DE}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -840,7 +849,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -869,27 +878,27 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
@@ -945,58 +954,58 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
-        <v>318</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>104</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="14">
+      <c r="L3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="13">
         <v>152</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="14">
+      <c r="O3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="13">
         <v>208</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="14" t="s">
-        <v>34</v>
+      <c r="R3" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="S3" s="15">
         <v>305</v>
@@ -1053,31 +1062,33 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17">
-        <v>104</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="C4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16">
         <v>306</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
       <c r="S4" s="18"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
@@ -1131,56 +1142,56 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>318</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>219</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="I5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="16">
         <v>123</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="17">
+      <c r="L5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="16">
         <v>211</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="17" t="s">
+      <c r="N5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="16">
+        <v>321</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="P5" s="17">
-        <v>321</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="S5" s="18">
         <v>305</v>
@@ -1237,56 +1248,56 @@
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>318</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="16">
         <v>109</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="16">
+        <v>308</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="17">
-        <v>308</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="16">
+        <v>411</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="17">
-        <v>411</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <v>200</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>16</v>
+      <c r="Q6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="S6" s="18">
         <v>305</v>
@@ -1343,27 +1354,27 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="16">
         <v>216</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
       <c r="S7" s="18"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
@@ -1417,56 +1428,56 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>318</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="E8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="16">
         <v>317</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="H8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="16">
         <v>310</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="17">
+      <c r="L8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="16">
         <v>111</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="17">
+      <c r="N8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="16">
         <v>413</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="17" t="s">
-        <v>45</v>
+      <c r="R8" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="S8" s="18">
         <v>305</v>
@@ -1523,27 +1534,27 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="16">
         <v>106</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="18"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
@@ -1597,29 +1608,29 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>318</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
       <c r="S10" s="18"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
@@ -1677,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D11" s="19">
         <v>318</v>
@@ -1749,52 +1760,52 @@
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>219</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="H12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="13">
         <v>405</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="14">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="13">
         <v>210</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="14">
+      <c r="O12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="13">
         <v>306</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>32</v>
+      <c r="Q12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="S12" s="15">
         <v>305</v>
@@ -1851,28 +1862,28 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="17">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="16">
         <v>208</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17" t="s">
-        <v>13</v>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="S13" s="18">
         <v>218</v>
@@ -1929,50 +1940,50 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>111</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="I14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="16">
         <v>216</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="17" t="s">
+      <c r="K14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="17">
+      <c r="O14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="16">
         <v>317</v>
       </c>
-      <c r="Q14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>23</v>
+      <c r="Q14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="S14" s="18">
         <v>305</v>
@@ -2029,50 +2040,50 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>202</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="H15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="16">
         <v>310</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="17" t="s">
+      <c r="K15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="17">
+      <c r="O15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="16">
         <v>304</v>
       </c>
-      <c r="Q15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>36</v>
+      <c r="Q15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="S15" s="18">
         <v>201</v>
@@ -2129,29 +2140,29 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="17">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="16">
         <v>404</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
       <c r="S16" s="18"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
@@ -2205,23 +2216,23 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
       <c r="S17" s="18"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -2275,29 +2286,29 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="B18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="16">
         <v>318</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
       <c r="S18" s="18"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -2353,7 +2364,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="21"/>
       <c r="C19" s="19" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D19" s="19">
         <v>122</v>
@@ -2425,61 +2436,61 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13">
+        <v>318</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="13">
+        <v>117</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="13">
+        <v>405</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="14">
-        <v>318</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="14">
-        <v>117</v>
-      </c>
-      <c r="K20" s="14" t="s">
+      <c r="P20" s="13">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="R20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="14">
-        <v>405</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="14">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="S20" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
@@ -2533,27 +2544,27 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="B21" s="17"/>
+      <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="16">
         <v>106</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
       <c r="S21" s="18"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
@@ -2607,56 +2618,56 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="16">
+        <v>318</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="16">
+        <v>210</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="16">
+        <v>322</v>
+      </c>
+      <c r="N22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="17">
-        <v>318</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="17">
-        <v>210</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="17">
-        <v>322</v>
-      </c>
-      <c r="N22" s="17" t="s">
+      <c r="O22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="16">
+        <v>202</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="17">
-        <v>202</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>2</v>
       </c>
       <c r="S22" s="18">
         <v>305</v>
@@ -2713,56 +2724,56 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="16">
+        <v>318</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="16">
+        <v>314</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="16">
+        <v>308</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="17">
-        <v>318</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="M23" s="16">
+        <v>104</v>
+      </c>
+      <c r="N23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="17">
-        <v>314</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="17">
-        <v>308</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="17">
-        <v>104</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="17" t="s">
+      <c r="O23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R23" s="17" t="s">
-        <v>45</v>
+      <c r="R23" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="S23" s="18">
         <v>305</v>
@@ -2819,31 +2830,31 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="16">
         <v>410</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="17">
+      <c r="K24" s="17"/>
+      <c r="L24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="16">
         <v>322</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
       <c r="S24" s="18"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
@@ -2897,56 +2908,56 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="16">
         <v>318</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="17">
+      <c r="E25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="16">
         <v>416</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="17">
+      <c r="H25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="16">
         <v>203</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" s="17">
+      <c r="L25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="16">
         <v>403</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="P25" s="17">
+      <c r="O25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" s="16">
         <v>109</v>
       </c>
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="17" t="s">
-        <v>2</v>
+      <c r="R25" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="S25" s="18">
         <v>305</v>
@@ -3001,30 +3012,30 @@
       <c r="BO25" s="12"/>
       <c r="BP25" s="12"/>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="17">
+    <row r="26" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="19">
         <v>152</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="20"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
@@ -3076,25 +3087,63 @@
       <c r="BP26" s="12"/>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="18"/>
+      <c r="A27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="13">
+        <v>318</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="13">
+        <v>210</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="13">
+        <v>206</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="15">
+        <v>305</v>
+      </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
@@ -3145,26 +3194,30 @@
       <c r="BO27" s="12"/>
       <c r="BP27" s="12"/>
     </row>
-    <row r="28" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="20"/>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="16">
+        <v>308</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
@@ -3216,62 +3269,60 @@
       <c r="BP28" s="12"/>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="14">
-        <v>318</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="14">
-        <v>210</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="16">
+        <v>213</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="16">
+        <v>717</v>
+      </c>
+      <c r="K29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="L29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="14">
-        <v>206</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="S29" s="15">
-        <v>305</v>
+      <c r="M29" s="16">
+        <v>106</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="16">
+        <v>405</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="18">
+        <v>112</v>
       </c>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -3325,27 +3376,27 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="17">
-        <v>308</v>
-      </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="16">
+        <v>104</v>
+      </c>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
       <c r="S30" s="18"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
@@ -3399,59 +3450,59 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="F31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="16">
+        <v>151</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="16">
+        <v>405</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="16">
+        <v>319</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="17">
-        <v>213</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="17">
-        <v>717</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="17">
-        <v>106</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" s="17">
-        <v>405</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>36</v>
+      <c r="P31" s="16">
+        <v>204</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="S31" s="18">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
@@ -3503,30 +3554,56 @@
       <c r="BO31" s="12"/>
       <c r="BP31" s="12"/>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="17">
-        <v>104</v>
-      </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="18"/>
+    <row r="32" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="19">
+        <v>318</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="19">
+        <v>154</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="19">
+        <v>219</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="20">
+        <v>305</v>
+      </c>
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
@@ -3578,61 +3655,51 @@
       <c r="BP32" s="12"/>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="17">
-        <v>151</v>
-      </c>
-      <c r="H33" s="17" t="s">
+      <c r="A33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="C33" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="17">
+      <c r="D33" s="13">
+        <v>416</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="13">
         <v>405</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="17">
-        <v>319</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P33" s="17">
-        <v>204</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S33" s="18">
+      <c r="H33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="13">
         <v>108</v>
       </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="13">
+        <v>208</v>
+      </c>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
@@ -3685,54 +3752,28 @@
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="B34" s="17"/>
+      <c r="C34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="16">
         <v>318</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="17">
-        <v>154</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" s="17">
-        <v>219</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R34" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="S34" s="18">
-        <v>305</v>
-      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="18"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
@@ -3785,23 +3826,47 @@
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
+      <c r="B35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="16">
+        <v>405</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="16">
+        <v>108</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="16">
+        <v>152</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="16">
+        <v>416</v>
+      </c>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
       <c r="S35" s="18"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
@@ -3853,26 +3918,30 @@
       <c r="BO35" s="12"/>
       <c r="BP35" s="12"/>
     </row>
-    <row r="36" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="20"/>
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="16">
+        <v>213</v>
+      </c>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="18"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
@@ -3924,51 +3993,49 @@
       <c r="BP36" s="12"/>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="16">
+        <v>108</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="16">
+        <v>106</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="16">
+        <v>416</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="14">
-        <v>416</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="14">
-        <v>405</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="14">
-        <v>108</v>
-      </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37" s="14">
-        <v>208</v>
-      </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="15"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
@@ -4019,30 +4086,30 @@
       <c r="BO37" s="12"/>
       <c r="BP37" s="12"/>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="17">
-        <v>318</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="18"/>
+    <row r="38" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="19">
+        <v>310</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
@@ -4094,49 +4161,24 @@
       <c r="BP38" s="12"/>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="17">
-        <v>405</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="17">
-        <v>108</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M39" s="17">
-        <v>152</v>
-      </c>
-      <c r="N39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="P39" s="17">
-        <v>416</v>
-      </c>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="18"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
@@ -4188,29 +4230,24 @@
       <c r="BP39" s="12"/>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="17">
-        <v>213</v>
-      </c>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="18"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
@@ -4262,49 +4299,24 @@
       <c r="BP40" s="12"/>
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="17">
-        <v>108</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="17">
-        <v>106</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="17">
-        <v>416</v>
-      </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S41" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
@@ -4356,29 +4368,24 @@
       <c r="BP41" s="12"/>
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="17">
-        <v>310</v>
-      </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="18"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
@@ -4430,25 +4437,24 @@
       <c r="BP42" s="12"/>
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="18"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
@@ -4500,25 +4506,24 @@
       <c r="BP43" s="12"/>
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="18"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
@@ -4569,26 +4574,25 @@
       <c r="BO44" s="12"/>
       <c r="BP44" s="12"/>
     </row>
-    <row r="45" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="20"/>
+    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
@@ -4985,31 +4989,30 @@
       <c r="BP50" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N35:N36"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K27:K28"/>
     <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E12:E13"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A1FCB9-00A2-494A-A68F-1D8C2F37C0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EAF211-C74D-4DB8-BA63-72DD9975F8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{10A9041B-0767-4D39-AD4A-8C304D18C764}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{9DD7B388-D08A-42E1-ACC0-C5AB99DBE6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="56">
   <si>
     <t>А10</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>Вступ до спеціальності</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
   </si>
   <si>
     <t>Основи правознавства</t>
@@ -51,18 +48,15 @@
     <t>Веселянский Я.А.</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Історія України</t>
   </si>
   <si>
     <t>Всесвітня історія</t>
   </si>
   <si>
-    <t>Вступ до спеціальності</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
-  </si>
-  <si>
     <t>Українська мова</t>
   </si>
   <si>
@@ -168,6 +162,9 @@
     <t>Журавська К.О.</t>
   </si>
   <si>
+    <t xml:space="preserve">Зарубіжна література </t>
+  </si>
+  <si>
     <t>Лг12</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
   </si>
   <si>
     <t>П13</t>
-  </si>
-  <si>
-    <t>Халіф О.Р.</t>
   </si>
   <si>
     <t>П14</t>
@@ -810,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EFBED1-071B-4B1C-9203-B81C0AB0A9B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E26561-4D43-4584-A2A6-2390D1FD01E6}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -840,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -869,27 +863,27 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
@@ -945,7 +939,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -954,49 +948,49 @@
         <v>2</v>
       </c>
       <c r="D3" s="10">
+        <v>318</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10">
+        <v>201</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="10">
+        <v>106</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="L3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="10">
+        <v>410</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="10">
+        <v>717</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="10">
-        <v>104</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="10">
-        <v>152</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="10">
-        <v>208</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="S3" s="12">
         <v>305</v>
@@ -1057,17 +1051,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13">
-        <v>2</v>
+        <v>413</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -1134,10 +1128,10 @@
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="13">
         <v>318</v>
@@ -1146,43 +1140,43 @@
         <v>8</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13">
+        <v>216</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="13">
+        <v>302</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="13">
+        <v>306</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="13">
-        <v>219</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="13">
-        <v>123</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="13">
-        <v>211</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="P5" s="13">
-        <v>321</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="S5" s="15">
         <v>305</v>
@@ -1240,55 +1234,55 @@
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="13">
         <v>318</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>206</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="13">
+        <v>213</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="13">
+        <v>202</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="13">
-        <v>109</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="O6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="13">
+        <v>303</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="13">
-        <v>308</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="13">
-        <v>411</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="13">
-        <v>200</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="S6" s="15">
         <v>305</v>
@@ -1353,10 +1347,10 @@
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="13">
-        <v>216</v>
+        <v>411</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -1420,55 +1414,55 @@
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="13">
+        <v>308</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="13">
+        <v>302</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="13">
+        <v>413</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="13">
         <v>318</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="13">
-        <v>317</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="13">
-        <v>310</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="13">
-        <v>111</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="13">
-        <v>413</v>
       </c>
       <c r="Q8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S8" s="15">
         <v>305</v>
@@ -1525,19 +1519,21 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13">
+        <v>111</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="13">
-        <v>106</v>
-      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1597,32 +1593,32 @@
       <c r="BO9" s="9"/>
       <c r="BP9" s="9"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="13">
+    <row r="10" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
         <v>318</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -1673,32 +1669,64 @@
       <c r="BO10" s="9"/>
       <c r="BP10" s="9"/>
     </row>
-    <row r="11" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10">
+        <v>318</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10">
+        <v>302</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="16">
-        <v>318</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
+      <c r="I11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="10">
+        <v>216</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="10">
+        <v>322</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="12">
+        <v>305</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -1750,56 +1778,32 @@
       <c r="BP11" s="9"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10">
-        <v>219</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="13">
+        <v>111</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="10">
-        <v>405</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="10">
-        <v>210</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="10">
-        <v>306</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="12">
-        <v>305</v>
+      <c r="S12" s="15">
+        <v>153</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -1853,31 +1857,59 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13">
+        <v>318</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G13" s="13">
-        <v>208</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="13">
+        <v>314</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="13">
+        <v>308</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="R13" s="13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S13" s="15">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -1934,51 +1966,25 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="13" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G14" s="13">
-        <v>111</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="13">
-        <v>216</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="13">
-        <v>317</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" s="15">
-        <v>305</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="15"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -2031,53 +2037,59 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13">
+        <v>318</v>
+      </c>
       <c r="E15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13">
+        <v>322</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="13">
+        <v>305</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="13">
+        <v>204</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="13">
-        <v>202</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="13">
-        <v>310</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="13" t="s">
+      <c r="R15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="13">
-        <v>304</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="S15" s="15">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -2131,18 +2143,16 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="13">
-        <v>404</v>
-      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13">
+        <v>122</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -2207,12 +2217,24 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="B17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13">
+        <v>318</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="13">
+        <v>411</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -2275,32 +2297,30 @@
       <c r="BO17" s="9"/>
       <c r="BP17" s="9"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="13" t="s">
+    <row r="18" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="13">
-        <v>318</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="15"/>
+      <c r="D18" s="16">
+        <v>302</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="17"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -2351,30 +2371,64 @@
       <c r="BO18" s="9"/>
       <c r="BP18" s="9"/>
     </row>
-    <row r="19" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="16" t="s">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="16">
-        <v>122</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="17"/>
+      <c r="D19" s="10">
+        <v>318</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="10">
+        <v>416</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="10">
+        <v>117</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="12">
+        <v>305</v>
+      </c>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -2426,63 +2480,29 @@
       <c r="BP19" s="9"/>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="10">
-        <v>318</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="10">
-        <v>117</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="10">
-        <v>405</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="10">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="D20" s="13">
+        <v>304</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -2535,28 +2555,60 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="C21" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="13">
-        <v>106</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="15"/>
+        <v>318</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="13">
+        <v>109</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="13">
+        <v>153</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="13">
+        <v>409</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="15">
+        <v>405</v>
+      </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -2609,60 +2661,28 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="13">
-        <v>318</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J22" s="13">
         <v>210</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="13">
-        <v>322</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="13">
-        <v>202</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="15">
-        <v>305</v>
-      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -2716,55 +2736,55 @@
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="13">
         <v>318</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G23" s="13">
-        <v>314</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>12</v>
+        <v>104</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J23" s="13">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M23" s="13">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="N23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="Q23" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="S23" s="15">
         <v>305</v>
@@ -2827,19 +2847,15 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="13">
-        <v>410</v>
-      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="14"/>
       <c r="L24" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M24" s="13">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -2900,19 +2916,19 @@
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="13">
         <v>318</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" s="13">
         <v>416</v>
@@ -2921,34 +2937,34 @@
         <v>20</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="13">
-        <v>203</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M25" s="13">
-        <v>403</v>
+        <v>123</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P25" s="13">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S25" s="15">
         <v>305</v>
@@ -3003,30 +3019,34 @@
       <c r="BO25" s="9"/>
       <c r="BP25" s="9"/>
     </row>
-    <row r="26" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="16">
-        <v>152</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="17"/>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="13">
+        <v>314</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="13">
+        <v>108</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="15"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -3077,64 +3097,32 @@
       <c r="BO26" s="9"/>
       <c r="BP26" s="9"/>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="10">
+    <row r="27" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="16">
         <v>318</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="10">
-        <v>210</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="10">
-        <v>206</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S27" s="12">
-        <v>305</v>
-      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="17"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -3186,29 +3174,63 @@
       <c r="BP27" s="9"/>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="13">
-        <v>308</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="15"/>
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="10">
+        <v>112</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="10">
+        <v>203</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="10">
+        <v>311</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="10">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="12">
+        <v>108</v>
+      </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -3262,58 +3284,58 @@
     <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" s="13">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J29" s="13">
         <v>717</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M29" s="13">
-        <v>106</v>
+        <v>416</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="P29" s="13">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S29" s="15">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -3378,10 +3400,10 @@
       <c r="J30" s="13"/>
       <c r="K30" s="14"/>
       <c r="L30" s="13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M30" s="13">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -3442,59 +3464,53 @@
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="D31" s="13">
+        <v>318</v>
+      </c>
       <c r="E31" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G31" s="13">
-        <v>151</v>
-      </c>
-      <c r="H31" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="13">
+        <v>416</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="13">
+        <v>201</v>
+      </c>
+      <c r="N31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="O31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="13">
-        <v>405</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="13">
-        <v>319</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="P31" s="13">
-        <v>204</v>
-      </c>
-      <c r="Q31" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S31" s="15">
         <v>108</v>
       </c>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -3545,56 +3561,30 @@
       <c r="BO31" s="9"/>
       <c r="BP31" s="9"/>
     </row>
-    <row r="32" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="16">
-        <v>318</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="16">
-        <v>154</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="16">
-        <v>219</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S32" s="17">
-        <v>305</v>
-      </c>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="13">
+        <v>211</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3646,51 +3636,49 @@
       <c r="BP32" s="9"/>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="A33" s="4"/>
+      <c r="B33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="13">
         <v>416</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="10">
-        <v>405</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="10">
-        <v>108</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" s="10">
-        <v>208</v>
-      </c>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="12"/>
+      <c r="E33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="13">
+        <v>210</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="13">
+        <v>322</v>
+      </c>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3741,30 +3729,30 @@
       <c r="BO33" s="9"/>
       <c r="BP33" s="9"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="13">
+    <row r="34" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="16">
         <v>318</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="17"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -3816,49 +3804,51 @@
       <c r="BP34" s="9"/>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="10">
+        <v>405</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="F35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="13">
-        <v>405</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="G35" s="10">
         <v>108</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="13">
-        <v>152</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P35" s="13">
-        <v>416</v>
-      </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="15"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="10">
+        <v>106</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S35" s="12">
+        <v>305</v>
+      </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -3911,28 +3901,54 @@
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="13" t="s">
+      <c r="B36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="13">
+        <v>108</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P36" s="13">
-        <v>213</v>
-      </c>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="15"/>
+      <c r="G36" s="13">
+        <v>405</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="13">
+        <v>203</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="13">
+        <v>215</v>
+      </c>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -3983,49 +3999,49 @@
       <c r="BO36" s="9"/>
       <c r="BP36" s="9"/>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="13">
+    <row r="37" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="16">
+        <v>106</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="16">
+        <v>405</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="16">
         <v>108</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="13">
-        <v>106</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="13">
-        <v>416</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13" t="s">
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
@@ -4077,30 +4093,25 @@
       <c r="BO37" s="9"/>
       <c r="BP37" s="9"/>
     </row>
-    <row r="38" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="16">
-        <v>310</v>
-      </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="17"/>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
@@ -4981,32 +4992,32 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N35:N36"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="E25:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 1 курс.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EAF211-C74D-4DB8-BA63-72DD9975F8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AC7A4C-606F-41CA-95E9-D3418A67E2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{9DD7B388-D08A-42E1-ACC0-C5AB99DBE6D7}"/>
+    <workbookView xWindow="14805" yWindow="1095" windowWidth="13995" windowHeight="11505" xr2:uid="{7CD00FC6-7391-4439-956E-0372D33723D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="53">
   <si>
     <t>А10</t>
   </si>
@@ -48,12 +42,12 @@
     <t>Веселянский Я.А.</t>
   </si>
   <si>
+    <t>Історія України</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Історія України</t>
-  </si>
-  <si>
     <t>Всесвітня історія</t>
   </si>
   <si>
@@ -147,12 +141,6 @@
     <t>Сорочиньска О.В.</t>
   </si>
   <si>
-    <t>Технологічні процеси, обл. та обє. вироб.</t>
-  </si>
-  <si>
-    <t>Шурпан М.М.</t>
-  </si>
-  <si>
     <t>К17</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
   </si>
   <si>
     <t>Журавська К.О.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зарубіжна література </t>
   </si>
   <si>
     <t>Лг12</t>
@@ -804,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E26561-4D43-4584-A2A6-2390D1FD01E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22EFC6C-A6ED-41DB-9F45-3AE60DB58C09}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -815,7 +800,7 @@
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
@@ -834,7 +819,7 @@
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -868,22 +853,22 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
@@ -939,7 +924,7 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -957,7 +942,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="10">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>3</v>
@@ -966,16 +951,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="10">
-        <v>106</v>
+        <v>416</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M3" s="10">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>8</v>
@@ -984,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="P3" s="10">
-        <v>717</v>
+        <v>405</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>3</v>
@@ -1047,21 +1032,15 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13">
-        <v>413</v>
-      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="13">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -1143,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="G5" s="13">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="13">
-        <v>302</v>
+        <v>717</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>3</v>
@@ -1161,7 +1140,7 @@
         <v>35</v>
       </c>
       <c r="M5" s="13">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>10</v>
@@ -1170,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="13">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>12</v>
@@ -1240,53 +1219,23 @@
         <v>4</v>
       </c>
       <c r="D6" s="13">
-        <v>318</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13">
-        <v>206</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="13">
-        <v>213</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="13">
-        <v>202</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="13">
-        <v>303</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="15">
-        <v>305</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -1339,28 +1288,60 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>318</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>308</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J7" s="13">
-        <v>411</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="15"/>
+        <v>202</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="13">
+        <v>322</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="13">
+        <v>219</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="15">
+        <v>214</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -1413,60 +1394,28 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="13">
-        <v>308</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="13" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J8" s="13">
-        <v>302</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="13">
-        <v>413</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="13">
-        <v>318</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="15">
-        <v>305</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -1520,29 +1469,59 @@
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="13">
-        <v>111</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="15"/>
+        <v>318</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="13">
+        <v>117</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="13">
+        <v>412</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="13">
+        <v>104</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="13">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="15">
+        <v>305</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -1596,7 +1575,7 @@
     <row r="10" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>4</v>
@@ -1671,16 +1650,16 @@
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="10">
-        <v>318</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>23</v>
@@ -1689,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="10">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>10</v>
@@ -1698,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="10">
-        <v>216</v>
+        <v>416</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>16</v>
@@ -1707,7 +1686,7 @@
         <v>17</v>
       </c>
       <c r="M11" s="10">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>12</v>
@@ -1715,8 +1694,8 @@
       <c r="O11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="10" t="s">
-        <v>22</v>
+      <c r="P11" s="10">
+        <v>202</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>15</v>
@@ -1779,9 +1758,15 @@
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13">
+        <v>318</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1790,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="13">
-        <v>111</v>
+        <v>405</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -1803,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="S12" s="15">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
@@ -1858,55 +1843,55 @@
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" s="13">
         <v>318</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>3</v>
+      <c r="E13" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G13" s="13">
-        <v>216</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>12</v>
+        <v>208</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J13" s="13">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P13" s="13">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="S13" s="15">
         <v>305</v>
@@ -1966,16 +1951,16 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="13">
-        <v>202</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="13">
+        <v>416</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -2037,8 +2022,8 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="14" t="s">
-        <v>10</v>
+      <c r="B15" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>9</v>
@@ -2046,50 +2031,50 @@
       <c r="D15" s="13">
         <v>318</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>6</v>
+      <c r="E15" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="13">
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J15" s="13">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="P15" s="13">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S15" s="15">
-        <v>213</v>
+        <v>21</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -2143,16 +2128,16 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="13">
-        <v>122</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="13">
+        <v>123</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -2227,13 +2212,13 @@
         <v>318</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="13">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -2304,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="16">
-        <v>302</v>
+        <v>717</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2373,58 +2358,58 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="10">
         <v>318</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="G19" s="10">
+        <v>215</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J19" s="10">
-        <v>416</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>6</v>
+        <v>211</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M19" s="10">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="S19" s="12">
         <v>305</v>
@@ -2483,10 +2468,10 @@
       <c r="A20" s="4"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" s="13">
-        <v>304</v>
+        <v>151</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2494,9 +2479,13 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="13">
+        <v>112</v>
+      </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -2555,11 +2544,11 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="13" t="s">
-        <v>15</v>
+      <c r="B21" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="13">
         <v>318</v>
@@ -2573,41 +2562,41 @@
       <c r="G21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>10</v>
+      <c r="H21" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="13">
+        <v>317</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="13">
+        <v>306</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="13">
+        <v>416</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="13">
-        <v>109</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="13">
-        <v>153</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="13">
-        <v>409</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="S21" s="15">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -2661,22 +2650,26 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13">
+        <v>154</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="13">
-        <v>210</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="13">
+        <v>202</v>
+      </c>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -2736,37 +2729,37 @@
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="13">
         <v>318</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="13">
-        <v>104</v>
+        <v>36</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J23" s="13">
-        <v>321</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>18</v>
+        <v>416</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M23" s="13">
         <v>310</v>
@@ -2775,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P23" s="13" t="s">
         <v>22</v>
@@ -2841,28 +2834,60 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
+      <c r="B24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="13">
+        <v>318</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="13">
+        <v>416</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="13">
+        <v>304</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="L24" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M24" s="13">
-        <v>106</v>
-      </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="15"/>
+        <v>311</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="13">
+        <v>303</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="15">
+        <v>305</v>
+      </c>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -2915,60 +2940,28 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="13">
-        <v>318</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="13">
-        <v>416</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="13">
-        <v>123</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="13">
-        <v>218</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" s="15">
-        <v>305</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -3019,34 +3012,32 @@
       <c r="BO25" s="9"/>
       <c r="BP25" s="9"/>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="13">
-        <v>314</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="13">
-        <v>108</v>
-      </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="15"/>
+    <row r="26" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="16">
+        <v>318</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="17"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -3097,32 +3088,64 @@
       <c r="BO26" s="9"/>
       <c r="BP26" s="9"/>
     </row>
-    <row r="27" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="10">
         <v>318</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
+      <c r="E27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="10">
+        <v>211</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="10">
+        <v>152</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="10">
+        <v>215</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="10">
+        <v>317</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -3174,62 +3197,60 @@
       <c r="BP27" s="9"/>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="10">
-        <v>112</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="10">
-        <v>203</v>
-      </c>
-      <c r="K28" s="10" t="s">
+      <c r="G28" s="13">
+        <v>303</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="13">
+        <v>405</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="13">
+        <v>108</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="13">
+        <v>211</v>
+      </c>
+      <c r="Q28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="R28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="10">
-        <v>311</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" s="10">
-        <v>123</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S28" s="12">
-        <v>108</v>
+      <c r="S28" s="15">
+        <v>305</v>
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
@@ -3293,31 +3314,31 @@
         <v>22</v>
       </c>
       <c r="E29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="13">
+        <v>306</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="13">
+        <v>416</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="L29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="13">
-        <v>218</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="13">
-        <v>717</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="M29" s="13">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>18</v>
@@ -3326,16 +3347,16 @@
         <v>19</v>
       </c>
       <c r="P29" s="13">
-        <v>318</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S29" s="15">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
@@ -3395,16 +3416,16 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="13" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="13">
-        <v>305</v>
-      </c>
+      <c r="J30" s="13">
+        <v>217</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
@@ -3461,56 +3482,56 @@
       <c r="BO30" s="9"/>
       <c r="BP30" s="9"/>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="16">
         <v>318</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="13">
-        <v>217</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="13">
-        <v>416</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="13">
-        <v>201</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" s="13">
-        <v>108</v>
-      </c>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="15"/>
+      <c r="G31" s="16">
+        <v>109</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="16">
+        <v>209</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="17">
+        <v>405</v>
+      </c>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -3562,29 +3583,51 @@
       <c r="BP31" s="9"/>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="13">
-        <v>211</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="15"/>
+      <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="10">
+        <v>416</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="10">
+        <v>405</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="10">
+        <v>108</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="12">
+        <v>305</v>
+      </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3637,45 +3680,25 @@
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="B33" s="14"/>
       <c r="C33" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="13">
-        <v>416</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="13">
-        <v>210</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P33" s="13">
-        <v>322</v>
-      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="15"/>
@@ -3729,30 +3752,50 @@
       <c r="BO33" s="9"/>
       <c r="BP33" s="9"/>
     </row>
-    <row r="34" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="16">
-        <v>318</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="17"/>
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="13">
+        <v>405</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="13">
+        <v>108</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="13">
+        <v>403</v>
+      </c>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="15">
+        <v>305</v>
+      </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -3803,52 +3846,44 @@
       <c r="BO34" s="9"/>
       <c r="BP34" s="9"/>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="16">
+        <v>108</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="L35" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="10">
+      <c r="M35" s="16">
         <v>405</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="10">
-        <v>108</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35" s="10">
-        <v>106</v>
-      </c>
-      <c r="Q35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S35" s="12">
-        <v>305</v>
-      </c>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="17"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -3900,55 +3935,24 @@
       <c r="BP35" s="9"/>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="13">
-        <v>108</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="13">
-        <v>405</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="13">
-        <v>203</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="13">
-        <v>215</v>
-      </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -3999,50 +4003,25 @@
       <c r="BO36" s="9"/>
       <c r="BP36" s="9"/>
     </row>
-    <row r="37" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="16">
-        <v>106</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="16">
-        <v>405</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M37" s="16">
-        <v>108</v>
-      </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="17" t="s">
-        <v>22</v>
-      </c>
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
@@ -4991,10 +4970,10 @@
       <c r="BP50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A37"/>
+  <mergeCells count="26">
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q11:Q12"/>
@@ -5002,23 +4981,22 @@
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H29:H30"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
